--- a/output/flourish_prefeitos_municipios_pequenos.xlsx
+++ b/output/flourish_prefeitos_municipios_pequenos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>ideologia</t>
   </si>
@@ -22,112 +22,109 @@
     <t>sigla_partido</t>
   </si>
   <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>PSDB</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>PTB</t>
+  </si>
+  <si>
+    <t>PRB</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>PODE</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PSL</t>
+  </si>
+  <si>
     <t>AVT</t>
   </si>
   <si>
-    <t>CDD</t>
+    <t>PATRI</t>
+  </si>
+  <si>
+    <t>PC DO B</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PROS</t>
+  </si>
+  <si>
+    <t>PMN</t>
+  </si>
+  <si>
+    <t>PRTB</t>
+  </si>
+  <si>
+    <t>REDE</t>
+  </si>
+  <si>
+    <t>PSOL</t>
+  </si>
+  <si>
+    <t>PMB</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MDB</t>
+    <t>PTC</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>PATRI</t>
-  </si>
-  <si>
-    <t>PC DO B</t>
-  </si>
-  <si>
-    <t>PDT</t>
-  </si>
-  <si>
     <t>PHS</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PMB</t>
-  </si>
-  <si>
-    <t>PMN</t>
-  </si>
-  <si>
-    <t>PODE</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
     <t>PPL</t>
   </si>
   <si>
-    <t>PRB</t>
-  </si>
-  <si>
     <t>PRONA</t>
   </si>
   <si>
-    <t>PROS</t>
-  </si>
-  <si>
     <t>PRP</t>
   </si>
   <si>
-    <t>PRTB</t>
-  </si>
-  <si>
-    <t>PSB</t>
-  </si>
-  <si>
-    <t>PSC</t>
-  </si>
-  <si>
-    <t>PSD</t>
-  </si>
-  <si>
-    <t>PSDB</t>
-  </si>
-  <si>
-    <t>PSL</t>
-  </si>
-  <si>
-    <t>PSOL</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>PTB</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>REDE</t>
-  </si>
-  <si>
-    <t>SD</t>
+    <t>Centro</t>
   </si>
   <si>
     <t>Direita</t>
-  </si>
-  <si>
-    <t>Centro</t>
   </si>
   <si>
     <t>Esquerda</t>
@@ -488,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,363 +499,321 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D1" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E1" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F1" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1005</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>1134</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>974</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>1004</v>
       </c>
       <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="D3">
-        <v>284</v>
+        <v>541</v>
       </c>
       <c r="E3">
-        <v>125</v>
+        <v>459</v>
       </c>
       <c r="F3">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="G3">
-        <v>110</v>
-      </c>
-      <c r="H3">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>466</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>986</v>
+        <v>806</v>
       </c>
       <c r="D5">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="E5">
-        <v>463</v>
+        <v>634</v>
       </c>
       <c r="F5">
-        <v>269</v>
+        <v>724</v>
       </c>
       <c r="G5">
-        <v>252</v>
-      </c>
-      <c r="H5">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>1206</v>
+        <v>757</v>
       </c>
       <c r="D6">
-        <v>1005</v>
+        <v>463</v>
       </c>
       <c r="E6">
-        <v>1134</v>
+        <v>271</v>
       </c>
       <c r="F6">
-        <v>975</v>
+        <v>253</v>
       </c>
       <c r="G6">
-        <v>995</v>
-      </c>
-      <c r="H6">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>411</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="G9">
-        <v>76</v>
-      </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="D10">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="E10">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="F10">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="G10">
-        <v>321</v>
-      </c>
-      <c r="H10">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="D12">
-        <v>367</v>
+        <v>497</v>
       </c>
       <c r="E12">
-        <v>372</v>
+        <v>581</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G12">
-        <v>288</v>
-      </c>
-      <c r="H12">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>26</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -866,103 +821,91 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G15">
-        <v>28</v>
-      </c>
-      <c r="H15">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>459</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>492</v>
-      </c>
-      <c r="H16">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>97</v>
-      </c>
-      <c r="H18">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -973,22 +916,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -996,103 +936,91 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G21">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="G23">
-        <v>379</v>
-      </c>
-      <c r="H23">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1100,25 +1028,22 @@
         <v>36</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>80</v>
-      </c>
-      <c r="H24">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1126,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1135,16 +1060,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>506</v>
-      </c>
-      <c r="H25">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1152,256 +1074,203 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>723</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>633</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>731</v>
-      </c>
-      <c r="H26">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>30</v>
-      </c>
-      <c r="H27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>245</v>
-      </c>
-      <c r="H30">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>246</v>
-      </c>
-      <c r="H31">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>15</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>93</v>
-      </c>
-      <c r="H33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>57</v>
-      </c>
-      <c r="H35">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
